--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\college\4th Year\NM-Algorithms-Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BD63B1-B097-4A9A-8B57-CD7C790CFF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07DFBC-E1C2-4E89-9DA0-A970371D5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A48CDA34-7C3A-4639-BFF1-5C582C3F8BCB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Problem 1</t>
   </si>
@@ -95,21 +95,6 @@
     <t>Blend Trisection False</t>
   </si>
   <si>
-    <t>Abdelrahman Bisection False</t>
-  </si>
-  <si>
-    <t>Abdelrahman Trisection False</t>
-  </si>
-  <si>
-    <t>Abdelrahman BisectionFalseM Secant</t>
-  </si>
-  <si>
-    <t>Abdelrahman Trisection False M Secant</t>
-  </si>
-  <si>
-    <t>Blend False M Secant</t>
-  </si>
-  <si>
     <t>Averege</t>
   </si>
   <si>
@@ -117,6 +102,18 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <t>Optimized-Bisection-FalsePosition</t>
+  </si>
+  <si>
+    <t>Optimized-Bisection-FalsePosition-Modified Secant</t>
+  </si>
+  <si>
+    <t>Optimized-Trisection-FalsePosition</t>
+  </si>
+  <si>
+    <t>Optimized_Trisection-FalsePosition-Modified Secant</t>
   </si>
 </sst>
 </file>
@@ -233,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -254,7 +251,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -592,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24819FE-6E68-44DC-A6FD-39CE44B4BB82}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,14 +601,14 @@
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -629,25 +625,22 @@
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -665,25 +658,22 @@
       <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2">
+        <v>9</v>
+      </c>
       <c r="I2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -701,25 +691,22 @@
       <c r="F3">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7"/>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3">
-        <v>8</v>
-      </c>
       <c r="J3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -737,25 +724,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4">
+        <v>8</v>
+      </c>
       <c r="I4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -773,25 +757,22 @@
       <c r="F5">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5">
+        <v>7</v>
+      </c>
       <c r="I5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -809,25 +790,22 @@
       <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <v>7</v>
+      </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -845,25 +823,22 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <v>8</v>
+      </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -881,25 +856,22 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8">
+        <v>6</v>
+      </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -917,25 +889,22 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9">
+        <v>9</v>
+      </c>
       <c r="I9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -953,25 +922,22 @@
       <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10">
+        <v>8</v>
+      </c>
       <c r="I10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -989,25 +955,22 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11">
+        <v>5</v>
+      </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1025,25 +988,22 @@
       <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12">
+        <v>8</v>
+      </c>
       <c r="I12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -1061,25 +1021,22 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="G13">
-        <v>22</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13">
+        <v>11</v>
+      </c>
       <c r="I13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -1097,25 +1054,22 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14">
+        <v>8</v>
+      </c>
       <c r="I14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1133,167 +1087,148 @@
       <c r="F15">
         <v>7</v>
       </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15">
+        <v>7</v>
+      </c>
       <c r="I15">
         <v>7</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:G17" si="0">AVERAGE(B2:B15)</f>
+    </row>
+    <row r="16" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:F16" si="0">AVERAGE(B2:B15)</f>
         <v>46.928571428571431</v>
       </c>
-      <c r="C17">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>32.571428571428569</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>24.928571428571427</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>7.2857142857142856</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17">
-        <f t="shared" ref="I17:L17" si="1">AVERAGE(I2:I15)</f>
+      <c r="G16" s="7"/>
+      <c r="H16">
+        <f t="shared" ref="H16:K16" si="1">AVERAGE(H2:H15)</f>
         <v>7.7857142857142856</v>
       </c>
-      <c r="J17">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="K17">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>3.0714285714285716</v>
       </c>
-      <c r="L17">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
+    <row r="17" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <f>MEDIAN(B2:B15)</f>
         <v>47</v>
       </c>
-      <c r="C18">
-        <f t="shared" ref="C18:G18" si="2">MEDIAN(C2:C15)</f>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="2">MEDIAN(C2:C15)</f>
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18">
-        <f t="shared" ref="I18:L18" si="3">MEDIAN(I2:I15)</f>
-        <v>8</v>
-      </c>
-      <c r="J18">
+      <c r="G17" s="7"/>
+      <c r="H17">
+        <f t="shared" ref="H17:K17" si="3">MEDIAN(H2:H15)</f>
+        <v>8</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="J17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
+    <row r="18" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <f>MODE(B2:B15)</f>
         <v>45</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:G19" si="4">MODE(C2:C15)</f>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="4">MODE(C2:C15)</f>
         <v>37</v>
       </c>
-      <c r="D19">
+      <c r="D18">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="E18">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="F19">
+      <c r="F18">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19">
-        <f t="shared" ref="I19:L19" si="5">MODE(I2:I15)</f>
-        <v>8</v>
-      </c>
-      <c r="J19">
+      <c r="G18" s="7"/>
+      <c r="H18">
+        <f t="shared" ref="H18:K18" si="5">MODE(H2:H15)</f>
+        <v>8</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="K19">
+      <c r="J18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="L19">
+      <c r="K18">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="7"/>
+    <row r="19" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07DFBC-E1C2-4E89-9DA0-A970371D5804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F0D25-864E-4389-B63D-7F2BAE6F2B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A48CDA34-7C3A-4639-BFF1-5C582C3F8BCB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Problem 1</t>
   </si>
@@ -80,21 +80,6 @@
     <t>Problem 14</t>
   </si>
   <si>
-    <t>False position</t>
-  </si>
-  <si>
-    <t>Bisection</t>
-  </si>
-  <si>
-    <t>Blend BisectionFalse</t>
-  </si>
-  <si>
-    <t>Trisection</t>
-  </si>
-  <si>
-    <t>Blend Trisection False</t>
-  </si>
-  <si>
     <t>Averege</t>
   </si>
   <si>
@@ -104,16 +89,34 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Optimized-Bisection-FalsePosition</t>
-  </si>
-  <si>
-    <t>Optimized-Bisection-FalsePosition-Modified Secant</t>
-  </si>
-  <si>
-    <t>Optimized-Trisection-FalsePosition</t>
-  </si>
-  <si>
-    <t>Optimized_Trisection-FalsePosition-Modified Secant</t>
+    <t>10-Brent-Method</t>
+  </si>
+  <si>
+    <t>01-Normal-Bisection</t>
+  </si>
+  <si>
+    <t>02-Normal-FalsePosition</t>
+  </si>
+  <si>
+    <t>03-Trisection</t>
+  </si>
+  <si>
+    <t>04-Badr-2021-A-Comparative-Study-among-New-Hybrid-Root-Finding-Algorithms-Hybrid-Blend-Trisection-Falseposition</t>
+  </si>
+  <si>
+    <t>05-Sabharwal-2019-Hybrid-Blend-Bisection-Falseposition</t>
+  </si>
+  <si>
+    <t>07-Optimized_Bisection-FalsePosition-Modified-Secant</t>
+  </si>
+  <si>
+    <t>06-Optimized-Bisection-FalsePosition</t>
+  </si>
+  <si>
+    <t>08-Optimized-Trisection-FalsePosition</t>
+  </si>
+  <si>
+    <t>09-Optimized_Trisection-FalsePosition-Modified Secant</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -254,6 +263,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24819FE-6E68-44DC-A6FD-39CE44B4BB82}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,35 +612,36 @@
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="49.109375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H1" s="6"/>
       <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
@@ -638,8 +651,11 @@
       <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -653,26 +669,29 @@
         <v>32</v>
       </c>
       <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2">
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -686,26 +705,29 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -719,17 +741,17 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4">
-        <v>8</v>
-      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -737,8 +759,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -752,26 +777,29 @@
         <v>29</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -785,26 +813,29 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -818,26 +849,29 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7">
-        <v>8</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -856,10 +890,10 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8">
-        <v>6</v>
-      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8">
         <v>6</v>
       </c>
@@ -867,10 +901,13 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -884,26 +921,29 @@
         <v>28</v>
       </c>
       <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9">
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -917,26 +957,29 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -950,15 +993,15 @@
         <v>28</v>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11">
-        <v>5</v>
-      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11">
         <v>5</v>
       </c>
@@ -966,10 +1009,13 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -983,26 +1029,29 @@
         <v>28</v>
       </c>
       <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12">
-        <v>8</v>
-      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1016,26 +1065,29 @@
         <v>31</v>
       </c>
       <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13">
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13">
         <v>11</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -1049,17 +1101,17 @@
         <v>1</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14">
-        <v>8</v>
-      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="I14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1067,8 +1119,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1082,15 +1137,15 @@
         <v>29</v>
       </c>
       <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15">
-        <v>7</v>
-      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="I15">
         <v>7</v>
       </c>
@@ -1098,15 +1153,18 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:F16" si="0">AVERAGE(B2:B15)</f>
+        <f t="shared" ref="B16:D16" si="0">AVERAGE(B2:B15)</f>
         <v>46.928571428571431</v>
       </c>
       <c r="C16">
@@ -1118,41 +1176,45 @@
         <v>24.928571428571427</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E15)</f>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f>AVERAGE(F2:F15)</f>
         <v>7.2857142857142856</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16">
-        <f t="shared" ref="H16:K16" si="1">AVERAGE(H2:H15)</f>
+      <c r="G16">
+        <f>AVERAGE(G2:G15)</f>
+        <v>11.642857142857142</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16">
+        <f t="shared" ref="I16:L16" si="1">AVERAGE(I2:I15)</f>
         <v>7.7857142857142856</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <f>AVERAGE(J2:J15)</f>
+        <v>3.0714285714285716</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>3.0714285714285716</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
+      <c r="L16">
+        <f>AVERAGE(L2:L15)</f>
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <f>MEDIAN(B2:B15)</f>
         <v>47</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:F17" si="2">MEDIAN(C2:C15)</f>
+        <f t="shared" ref="C17:E17" si="2">MEDIAN(C2:C15)</f>
         <v>24</v>
       </c>
       <c r="D17">
@@ -1161,74 +1223,82 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17">
-        <f t="shared" ref="H17:K17" si="3">MEDIAN(H2:H15)</f>
-        <v>8</v>
-      </c>
+        <f>MEDIAN(F2:F15)</f>
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="3">MEDIAN(G2:G15)</f>
+        <v>12</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I17:L17" si="4">MEDIAN(I2:I15)</f>
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f>MEDIAN(J2:J15)</f>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f>MODE(B2:B15)</f>
         <v>45</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:F18" si="4">MODE(C2:C15)</f>
+        <f t="shared" ref="C18:E18" si="5">MODE(C2:C15)</f>
         <v>37</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18">
-        <f t="shared" ref="H18:K18" si="5">MODE(H2:H15)</f>
-        <v>8</v>
-      </c>
+        <f>MODE(F2:F15)</f>
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="6">MODE(G2:G15)</f>
+        <v>16</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" ref="I18:L18" si="7">MODE(I2:I15)</f>
+        <v>8</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f>MODE(J2:J15)</f>
         <v>3</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
